--- a/po/Jorts translation sheet.xlsx
+++ b/po/Jorts translation sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="472">
   <si>
     <t>en-GB</t>
   </si>
@@ -192,7 +192,7 @@
     <t xml:space="preserve">Note color</t>
   </si>
   <si>
-    <t xml:space="preserve">Farbe beachten</t>
+    <t xml:space="preserve">Farbe der Notiz</t>
   </si>
   <si>
     <t xml:space="preserve">Couleur de la note</t>
@@ -402,6 +402,24 @@
     <t>Čučoriedky</t>
   </si>
   <si>
+    <t>Lime</t>
+  </si>
+  <si>
+    <t>Limette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citron vert</t>
+  </si>
+  <si>
+    <t>Cal</t>
+  </si>
+  <si>
+    <t>Calce</t>
+  </si>
+  <si>
+    <t>Vápno</t>
+  </si>
+  <si>
     <t>Mint</t>
   </si>
   <si>
@@ -423,24 +441,6 @@
     <t>Mäta</t>
   </si>
   <si>
-    <t>Lime</t>
-  </si>
-  <si>
-    <t>Limette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citron vert</t>
-  </si>
-  <si>
-    <t>Cal</t>
-  </si>
-  <si>
-    <t>Calce</t>
-  </si>
-  <si>
-    <t>Vápno</t>
-  </si>
-  <si>
     <t>Banana</t>
   </si>
   <si>
@@ -453,6 +453,27 @@
     <t>Banán</t>
   </si>
   <si>
+    <t>Strawberry</t>
+  </si>
+  <si>
+    <t>Erdbeere</t>
+  </si>
+  <si>
+    <t>Fraise</t>
+  </si>
+  <si>
+    <t>Fresa</t>
+  </si>
+  <si>
+    <t>Fragola</t>
+  </si>
+  <si>
+    <t>Morango</t>
+  </si>
+  <si>
+    <t>Jahoda</t>
+  </si>
+  <si>
     <t>Orange</t>
   </si>
   <si>
@@ -468,27 +489,6 @@
     <t>Oranžová</t>
   </si>
   <si>
-    <t>Strawberry</t>
-  </si>
-  <si>
-    <t>Erdbeere</t>
-  </si>
-  <si>
-    <t>Fraise</t>
-  </si>
-  <si>
-    <t>Fresa</t>
-  </si>
-  <si>
-    <t>Fragola</t>
-  </si>
-  <si>
-    <t>Morango</t>
-  </si>
-  <si>
-    <t>Jahoda</t>
-  </si>
-  <si>
     <t>Bubblegum</t>
   </si>
   <si>
@@ -1047,33 +1047,6 @@
     <t>Nezabudnite!</t>
   </si>
   <si>
-    <t xml:space="preserve">Deep deep thoughts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiefe Dusche Gedanken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réflexions profondes sous la douche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pensamientos profundos en la ducha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pensieri da doccia profonda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pensamentos profundos no duche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pensamentos profundos no chuveiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hluboké myšlenky ve sprše</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hlboké myšlienky v sprche</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dear Diary,</t>
   </si>
   <si>
@@ -1182,7 +1155,7 @@
     <t xml:space="preserve">Household chores to get done today</t>
   </si>
   <si>
-    <t xml:space="preserve">Heute zu erledigende Hausarbeiten</t>
+    <t xml:space="preserve">zu erledigende Hausarbeiten</t>
   </si>
   <si>
     <t xml:space="preserve">Tâches ménagères</t>
@@ -1515,10 +1488,13 @@
     <t xml:space="preserve">My amazing mixtape</t>
   </si>
   <si>
+    <t xml:space="preserve">Mein erstaunliches Mixtape</t>
+  </si>
+  <si>
     <t xml:space="preserve">Napkin scribbles</t>
   </si>
   <si>
-    <t xml:space="preserve">Note your thoughts</t>
+    <t>Serviettenkritzeleien</t>
   </si>
 </sst>
 </file>
@@ -2091,7 +2067,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="21" width="30.7109375"/>
+    <col customWidth="1" min="1" max="1" width="26.140625"/>
+    <col customWidth="1" min="2" max="21" width="30.7109375"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -2187,7 +2164,9 @@
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
@@ -2502,36 +2481,36 @@
         <v>110</v>
       </c>
       <c r="E19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s">
         <v>110</v>
       </c>
-      <c r="F19" t="s">
-        <v>111</v>
-      </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H19" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" t="s">
         <v>112</v>
-      </c>
-      <c r="I19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
         <v>114</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>115</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>116</v>
       </c>
-      <c r="D20" t="s">
-        <v>117</v>
-      </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
         <v>117</v>
@@ -2540,7 +2519,7 @@
         <v>117</v>
       </c>
       <c r="H20" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I20" t="s">
         <v>119</v>
@@ -2580,36 +2559,36 @@
         <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
         <v>131</v>
@@ -2627,1246 +2606,1220 @@
         <v>134</v>
       </c>
       <c r="H23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H24" t="s">
-        <v>143</v>
-      </c>
-      <c r="I24" t="s">
-        <v>144</v>
-      </c>
-    </row>
+    <row r="24"/>
     <row r="25">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F25" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H25" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D27" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E27" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F27" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G27" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E28" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F28" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G28" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H28" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I28" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B29" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D29" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E29" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F29" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G29" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F30" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G30" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H30" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="I30" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B31" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F31" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G31" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H31" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I31" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C32" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E32" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F32" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G32" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H32" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I32" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" t="s">
+        <v>192</v>
+      </c>
+      <c r="G33" t="s">
+        <v>192</v>
+      </c>
+      <c r="H33" t="s">
+        <v>193</v>
+      </c>
+      <c r="I33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
         <v>195</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>196</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>197</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>198</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>199</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>198</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" t="s">
         <v>198</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H34" t="s">
         <v>200</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I34" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>201</v>
-      </c>
-      <c r="B36" t="s">
-        <v>202</v>
-      </c>
-      <c r="C36" t="s">
-        <v>203</v>
-      </c>
-      <c r="D36" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36" t="s">
-        <v>205</v>
-      </c>
-      <c r="F36" t="s">
-        <v>206</v>
-      </c>
-      <c r="G36" t="s">
-        <v>206</v>
-      </c>
-      <c r="H36" t="s">
-        <v>207</v>
-      </c>
-      <c r="I36" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D37" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E37" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F37" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G37" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H37" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="I37" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B38" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C38" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D38" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E38" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F38" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G38" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H38" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="I38" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B39" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C39" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D39" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E39" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F39" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G39" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H39" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="I39" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B40" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C40" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D40" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E40" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F40" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G40" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="H40" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="I40" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B41" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C41" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D41" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E41" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F41" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="H41" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="I41" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B42" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C42" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D42" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E42" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F42" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G42" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="H42" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="I42" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B43" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C43" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D43" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E43" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F43" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G43" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H43" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="I43" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B44" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C44" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D44" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="E44" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F44" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G44" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="H44" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="I44" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B45" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C45" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D45" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E45" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F45" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="G45" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H45" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I45" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B46" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C46" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D46" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E46" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F46" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G46" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H46" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I46" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B47" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C47" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D47" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E47" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F47" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G47" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H47" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="I47" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C48" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D48" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E48" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F48" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G48" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="H48" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="I48" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B49" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C49" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D49" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E49" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F49" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G49" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="H49" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="I49" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B50" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C50" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D50" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E50" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F50" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G50" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="H50" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="I50" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B51" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C51" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D51" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E51" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F51" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G51" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="H51" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="I51" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B52" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C52" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D52" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E52" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F52" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G52" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H52" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I52" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B53" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C53" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D53" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E53" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F53" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G53" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="H53" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I53" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B54" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C54" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D54" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="E54" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F54" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G54" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="H54" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="I54" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B55" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C55" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D55" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E55" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="F55" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="G55" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="H55" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="I55" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B56" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C56" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D56" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E56" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F56" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G56" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H56" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="I56" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B57" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C57" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D57" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E57" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F57" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G57" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="H57" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="I57" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B58" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C58" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D58" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="E58" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="F58" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="G58" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="H58" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="I58" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B59" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C59" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D59" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E59" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F59" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G59" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="H59" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="I59" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B60" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C60" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D60" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E60" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F60" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="G60" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H60" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="I60" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B61" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C61" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D61" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E61" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F61" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G61" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H61" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="I61" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B62" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C62" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D62" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="E62" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="F62" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="G62" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="H62" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="I62" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B63" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C63" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D63" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E63" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F63" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G63" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="H63" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="I63" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B64" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C64" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="D64" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="E64" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="F64" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="G64" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="H64" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="I64" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B65" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C65" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="D65" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="E65" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="F65" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="G65" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="H65" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="I65" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B66" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C66" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="D66" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="E66" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="F66" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G66" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="H66" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="I66" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B67" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C67" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D67" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="E67" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F67" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G67" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="H67" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="I67" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" ht="14.25"/>
     <row r="69" ht="14.25">
       <c r="A69" t="s">
-        <v>477</v>
+        <v>468</v>
+      </c>
+      <c r="B69" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="70" ht="14.25">
       <c r="A70" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25">
-      <c r="A71" t="s">
-        <v>479</v>
-      </c>
-    </row>
+        <v>470</v>
+      </c>
+      <c r="B70" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
